--- a/data/trans_camb/P33A-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P33A-Habitat-trans_camb.xlsx
@@ -612,7 +612,7 @@
         <v>-1.781355284556707</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>-2.048473135027573</v>
+        <v>-2.048473135027551</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>1.63763953604491</v>
@@ -624,7 +624,7 @@
         <v>-0.09886482895046234</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.3606641057458448</v>
+        <v>0.3606641057458559</v>
       </c>
     </row>
     <row r="5">
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-5.871867747918413</v>
+        <v>-5.485105629604113</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-6.034956321417962</v>
+        <v>-5.812486265694415</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.012274596347865</v>
+        <v>-3.624286117577262</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.208986793779762</v>
+        <v>-1.208908333887015</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-3.62268365368034</v>
+        <v>-3.430294268444599</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-2.281618253933923</v>
+        <v>-2.610705068570569</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.110818722478396</v>
+        <v>2.01359570460163</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.768709587915535</v>
+        <v>1.723951928241082</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6.725839383585281</v>
+        <v>6.560649301043993</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7.717459454314975</v>
+        <v>7.248164613052317</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>3.00190171080887</v>
+        <v>2.809630604360528</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>3.636732288033431</v>
+        <v>3.424308662853184</v>
       </c>
     </row>
     <row r="7">
@@ -690,7 +690,7 @@
         <v>-0.02064171656205768</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>-0.02373698397215091</v>
+        <v>-0.02373698397215065</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>0.02288629393889554</v>
@@ -702,7 +702,7 @@
         <v>-0.001251911357067678</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.004567038600715343</v>
+        <v>0.004567038600715483</v>
       </c>
     </row>
     <row r="8">
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.06616185106741185</v>
+        <v>-0.0626990725629322</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.06810867679889585</v>
+        <v>-0.06606918564461893</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.04053216823295505</v>
+        <v>-0.04960312934867946</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.01666526831455511</v>
+        <v>-0.0160461102470637</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.04420831410486608</v>
+        <v>-0.04309682891603339</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.02850038161859703</v>
+        <v>-0.03223426828992994</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.02589918783512536</v>
+        <v>0.0241548827363313</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.02085520985152852</v>
+        <v>0.02068989429470075</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.09773921647033117</v>
+        <v>0.09512111396762743</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.1127621340827878</v>
+        <v>0.1049531656779291</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.03877289091866228</v>
+        <v>0.03597196552008584</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.04760094664530314</v>
+        <v>0.04491179498011867</v>
       </c>
     </row>
     <row r="10">
@@ -778,13 +778,13 @@
         <v>-2.097193255444718</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.4014030220104936</v>
+        <v>0.4014030220105047</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>-0.6560565148503228</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-0.04494694464377558</v>
+        <v>-0.04494694464379778</v>
       </c>
     </row>
     <row r="11">
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.339728911629436</v>
+        <v>-2.309203404407455</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-4.188527165782614</v>
+        <v>-4.112195702268311</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-6.234378206967467</v>
+        <v>-6.101081143277959</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.300578651456762</v>
+        <v>-3.493997636078423</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-3.615239222757956</v>
+        <v>-3.580420357144369</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-2.383848105489436</v>
+        <v>-2.626672194777488</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.091471109574282</v>
+        <v>4.255237684867701</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.828069920318202</v>
+        <v>2.916671107016813</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.991368372609888</v>
+        <v>2.037257215868512</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.860009343608303</v>
+        <v>3.970160209606346</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.761787151805577</v>
+        <v>1.876628273019199</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2.747833338163828</v>
+        <v>2.507244903854153</v>
       </c>
     </row>
     <row r="13">
@@ -856,13 +856,13 @@
         <v>-0.02818734590958063</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>0.005395061137635363</v>
+        <v>0.005395061137635512</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.008270066034932941</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.0005665886884109442</v>
+        <v>-0.0005665886884112241</v>
       </c>
     </row>
     <row r="14">
@@ -873,22 +873,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.02735492588193736</v>
+        <v>-0.02720953012110128</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.04800761316706417</v>
+        <v>-0.0480102538667108</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.08300983862674265</v>
+        <v>-0.08038644103201147</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.04340638465714899</v>
+        <v>-0.04510189443368147</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.04500231346991051</v>
+        <v>-0.04489362635158079</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.02946465609025151</v>
+        <v>-0.03248909960902747</v>
       </c>
     </row>
     <row r="15">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.04967707375621183</v>
+        <v>0.05157363106238259</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.03430960216298683</v>
+        <v>0.0352902425770488</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.0271482654869179</v>
+        <v>0.02838130339071892</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.05393296059370282</v>
+        <v>0.05556224389859445</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.02256784436452556</v>
+        <v>0.02401687647947299</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.03531144446143733</v>
+        <v>0.03225383959671745</v>
       </c>
     </row>
     <row r="16">
@@ -932,7 +932,7 @@
         <v>2.090023768267146</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>-1.841243027454376</v>
+        <v>-1.841243027454365</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>4.153779371885413</v>
@@ -944,7 +944,7 @@
         <v>3.138931144043322</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-0.2500720277707091</v>
+        <v>-0.2500720277707202</v>
       </c>
     </row>
     <row r="17">
@@ -955,22 +955,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.622877511510862</v>
+        <v>-1.658532992197922</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-5.715197295895389</v>
+        <v>-5.695499232031364</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.4077895716760014</v>
+        <v>-0.270844678432361</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-3.797582146507095</v>
+        <v>-3.558650982457249</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.07822436993267251</v>
+        <v>0.003699864741314294</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-3.048079231972398</v>
+        <v>-3.242614418930215</v>
       </c>
     </row>
     <row r="18">
@@ -981,22 +981,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.824390193557512</v>
+        <v>5.540073960131629</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.231233563154801</v>
+        <v>2.116337274558119</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8.559279371254384</v>
+        <v>8.367382981019276</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5.378813609016341</v>
+        <v>5.597330120541155</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>6.096312632041768</v>
+        <v>5.914780744285615</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>2.760293731137182</v>
+        <v>2.837042395165919</v>
       </c>
     </row>
     <row r="19">
@@ -1010,7 +1010,7 @@
         <v>0.02470699352068947</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>-0.02176605847264948</v>
+        <v>-0.02176605847264936</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>0.05649265045248487</v>
@@ -1022,7 +1022,7 @@
         <v>0.03973917886333261</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.003165936614810731</v>
+        <v>-0.003165936614810872</v>
       </c>
     </row>
     <row r="20">
@@ -1033,22 +1033,22 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.01842294053790941</v>
+        <v>-0.0190693870260198</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.06592106659978231</v>
+        <v>-0.06555578540489543</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.005477806805941987</v>
+        <v>-0.003550805018686372</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.04923687257640817</v>
+        <v>-0.04640475502069015</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.001359437433906555</v>
+        <v>-4.110310907060796e-05</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.03798176825792327</v>
+        <v>-0.04010405425433262</v>
       </c>
     </row>
     <row r="21">
@@ -1059,22 +1059,22 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.07066063732546952</v>
+        <v>0.06777921385911453</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.02695075549361568</v>
+        <v>0.02562442384167163</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.1199698673362823</v>
+        <v>0.1175812869038313</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.07563675774901542</v>
+        <v>0.0791438832370546</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.0790401550520622</v>
+        <v>0.07692934919319896</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.03563970185910707</v>
+        <v>0.03659555514516735</v>
       </c>
     </row>
     <row r="22">
@@ -1092,7 +1092,7 @@
         <v>-3.780499082790711</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>-3.460092681417337</v>
+        <v>-3.460092681417326</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>-1.009354826734965</v>
@@ -1115,22 +1115,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-7.109384178402503</v>
+        <v>-6.976550453096261</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-6.497333796440522</v>
+        <v>-6.49572195778071</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-4.4353510027707</v>
+        <v>-5.006667789991971</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-4.845893654873397</v>
+        <v>-5.260445617731524</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-4.838143699157048</v>
+        <v>-4.764429002835604</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-4.837168455244447</v>
+        <v>-4.999800876421861</v>
       </c>
     </row>
     <row r="24">
@@ -1141,22 +1141,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-0.01336619701949181</v>
+        <v>-0.2281333333794241</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1677648458152174</v>
+        <v>0.4890232529834951</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.879791452544033</v>
+        <v>2.492897151846642</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.532950680268719</v>
+        <v>2.262961080474156</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3092753804464261</v>
+        <v>0.2183836722092909</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1807480094536578</v>
+        <v>0.1354055818918771</v>
       </c>
     </row>
     <row r="25">
@@ -1170,7 +1170,7 @@
         <v>-0.04469193830786525</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>-0.04090418891022396</v>
+        <v>-0.04090418891022383</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>-0.01376913562319236</v>
@@ -1193,22 +1193,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.08289974622729916</v>
+        <v>-0.08277882300902707</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.0757767053124338</v>
+        <v>-0.07593189152591642</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.0591958798422673</v>
+        <v>-0.06522646992990055</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.06412073675426042</v>
+        <v>-0.07017657693774612</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.06065979964471405</v>
+        <v>-0.05990820792942957</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.06062058727244993</v>
+        <v>-0.06279459067816345</v>
       </c>
     </row>
     <row r="27">
@@ -1219,22 +1219,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.0003224517622337702</v>
+        <v>-0.002708761626774521</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.001796727563900926</v>
+        <v>0.006025145028428338</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.04052963623706655</v>
+        <v>0.03485849017261779</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.03549391166237912</v>
+        <v>0.03139901788591085</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.003857181105191607</v>
+        <v>0.002447650902007033</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.002353954809627668</v>
+        <v>0.001688221224822413</v>
       </c>
     </row>
     <row r="28">
@@ -1252,7 +1252,7 @@
         <v>-0.686028857002785</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>-1.949621732551032</v>
+        <v>-1.949621732551021</v>
       </c>
       <c r="E28" s="5" t="n">
         <v>0.3351680449564132</v>
@@ -1264,7 +1264,7 @@
         <v>-0.1746758939779824</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-0.6776251861793869</v>
+        <v>-0.677625186179398</v>
       </c>
     </row>
     <row r="29">
@@ -1275,22 +1275,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-2.568546319285719</v>
+        <v>-2.442238347910718</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-3.689044401797864</v>
+        <v>-3.846873354932304</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-1.926282749982601</v>
+        <v>-1.973254961139206</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-1.406461201630292</v>
+        <v>-1.439948586315146</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-1.586908946064249</v>
+        <v>-1.593484151200894</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-1.959817666769427</v>
+        <v>-2.012644493519215</v>
       </c>
     </row>
     <row r="30">
@@ -1301,22 +1301,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.9993623143487624</v>
+        <v>1.047855985942995</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.04653818638495741</v>
+        <v>-0.1064686687776797</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2.390329684000247</v>
+        <v>2.447127174853367</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>2.75686250227866</v>
+        <v>2.667625640805111</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>1.351769714857157</v>
+        <v>1.395571595092337</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.6369887226985947</v>
+        <v>0.6232658342233121</v>
       </c>
     </row>
     <row r="31">
@@ -1330,7 +1330,7 @@
         <v>-0.008083484526747396</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>-0.02297241136027422</v>
+        <v>-0.02297241136027409</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>0.004570619270120213</v>
@@ -1342,7 +1342,7 @@
         <v>-0.002211333440408688</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.008578488995456459</v>
+        <v>-0.0085784889954566</v>
       </c>
     </row>
     <row r="32">
@@ -1353,22 +1353,22 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.02991989311927876</v>
+        <v>-0.02833343061577163</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.04296524725304367</v>
+        <v>-0.04469309986301531</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.02609380250511132</v>
+        <v>-0.02646079150408985</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.01901505649082385</v>
+        <v>-0.01933078855814982</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.01999004792431251</v>
+        <v>-0.01994363401064777</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.0246756083608412</v>
+        <v>-0.0252585317019463</v>
       </c>
     </row>
     <row r="33">
@@ -1379,22 +1379,22 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.01193171462957452</v>
+        <v>0.01249298887498465</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.0005464754553782491</v>
+        <v>-0.001366269073010802</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.03290325361135612</v>
+        <v>0.03361815860567567</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.03852073230201708</v>
+        <v>0.0369740865385397</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.01731707887410386</v>
+        <v>0.01780859926767213</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.008129649690718818</v>
+        <v>0.007958778202494679</v>
       </c>
     </row>
     <row r="34">
